--- a/Code/Results/Cases/Case_2_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.025350803408482</v>
+        <v>1.048787380830204</v>
       </c>
       <c r="D2">
-        <v>1.042823643837956</v>
+        <v>1.05578431934836</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.047186265340448</v>
+        <v>1.064452307921284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055230908319948</v>
+        <v>1.046655076873322</v>
       </c>
       <c r="J2">
-        <v>1.046798840073833</v>
+        <v>1.053829278645595</v>
       </c>
       <c r="K2">
-        <v>1.053716953467778</v>
+        <v>1.058523825643732</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.058025149540578</v>
+        <v>1.067168206705943</v>
       </c>
       <c r="N2">
-        <v>1.019114808921973</v>
+        <v>1.021752181434427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029963645383487</v>
+        <v>1.049751318248072</v>
       </c>
       <c r="D3">
-        <v>1.046415016803797</v>
+        <v>1.056557194739944</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.051280186424051</v>
+        <v>1.065356026627811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056743532690753</v>
+        <v>1.046919442814507</v>
       </c>
       <c r="J3">
-        <v>1.049669512163729</v>
+        <v>1.054442163160081</v>
       </c>
       <c r="K3">
-        <v>1.056486552883568</v>
+        <v>1.059110314433211</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.061296422669001</v>
+        <v>1.067886911492349</v>
       </c>
       <c r="N3">
-        <v>1.02009182007211</v>
+        <v>1.021958928704951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032886472441214</v>
+        <v>1.050375327028714</v>
       </c>
       <c r="D4">
-        <v>1.04869348243235</v>
+        <v>1.05705755323334</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.053879391838014</v>
+        <v>1.065941379336871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057693497290833</v>
+        <v>1.047089509412093</v>
       </c>
       <c r="J4">
-        <v>1.051484775235976</v>
+        <v>1.054838384406281</v>
       </c>
       <c r="K4">
-        <v>1.058237701561295</v>
+        <v>1.059489406525065</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.063368283060514</v>
+        <v>1.068351911154328</v>
       </c>
       <c r="N4">
-        <v>1.020709389602256</v>
+        <v>1.022092514844582</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034100915486951</v>
+        <v>1.05063772582993</v>
       </c>
       <c r="D5">
-        <v>1.049640833808766</v>
+        <v>1.057267964168368</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.054960570245188</v>
+        <v>1.066187600759304</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058086142521251</v>
+        <v>1.047160766537858</v>
       </c>
       <c r="J5">
-        <v>1.052238108443456</v>
+        <v>1.055004869796042</v>
       </c>
       <c r="K5">
-        <v>1.058964371415906</v>
+        <v>1.059648678943662</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.064228887891954</v>
+        <v>1.068547383946813</v>
       </c>
       <c r="N5">
-        <v>1.020965618381985</v>
+        <v>1.022148627876382</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034304001301488</v>
+        <v>1.050681787562794</v>
       </c>
       <c r="D6">
-        <v>1.049799291538416</v>
+        <v>1.057303296587896</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.055141440233578</v>
+        <v>1.066228950543793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058151680276026</v>
+        <v>1.047172716901791</v>
       </c>
       <c r="J6">
-        <v>1.052364030315958</v>
+        <v>1.055032818358219</v>
       </c>
       <c r="K6">
-        <v>1.059085832925309</v>
+        <v>1.059675415718184</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.064372786554507</v>
+        <v>1.068580203893558</v>
       </c>
       <c r="N6">
-        <v>1.02100844399389</v>
+        <v>1.022158046760009</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032902755451844</v>
+        <v>1.050378832957869</v>
       </c>
       <c r="D7">
-        <v>1.048706181853202</v>
+        <v>1.057060364519373</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.053893883372094</v>
+        <v>1.065944668814345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057698770013211</v>
+        <v>1.047090462492474</v>
       </c>
       <c r="J7">
-        <v>1.051494879429242</v>
+        <v>1.054840609331201</v>
       </c>
       <c r="K7">
-        <v>1.058247448359285</v>
+        <v>1.059491535116646</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.063379822955081</v>
+        <v>1.068354523123938</v>
       </c>
       <c r="N7">
-        <v>1.020712826560496</v>
+        <v>1.022093264813112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026922896437076</v>
+        <v>1.049113090219373</v>
       </c>
       <c r="D8">
-        <v>1.044046981261917</v>
+        <v>1.056045462407878</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.048580392919273</v>
+        <v>1.064757601768098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055748179821029</v>
+        <v>1.046744626497049</v>
       </c>
       <c r="J8">
-        <v>1.047777939132302</v>
+        <v>1.054036479076625</v>
       </c>
       <c r="K8">
-        <v>1.05466161726295</v>
+        <v>1.058722115699898</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.05914019107429</v>
+        <v>1.067411106185572</v>
       </c>
       <c r="N8">
-        <v>1.019448085758171</v>
+        <v>1.021822092437374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015885736672069</v>
+        <v>1.046884843321722</v>
       </c>
       <c r="D9">
-        <v>1.035472510205772</v>
+        <v>1.054259090605662</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.038816510582318</v>
+        <v>1.062670381577712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052081997732118</v>
+        <v>1.046127612827587</v>
       </c>
       <c r="J9">
-        <v>1.040889735757303</v>
+        <v>1.052616806999259</v>
       </c>
       <c r="K9">
-        <v>1.048015141789135</v>
+        <v>1.05736323316295</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.051309714540044</v>
+        <v>1.065748343177962</v>
       </c>
       <c r="N9">
-        <v>1.017102552823432</v>
+        <v>1.021342787417987</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008154075894016</v>
+        <v>1.04540083668444</v>
       </c>
       <c r="D10">
-        <v>1.029486364399142</v>
+        <v>1.053069599453732</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.032009275089813</v>
+        <v>1.061282027257948</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049471410863194</v>
+        <v>1.045711183339656</v>
       </c>
       <c r="J10">
-        <v>1.036047870334616</v>
+        <v>1.05166859504695</v>
       </c>
       <c r="K10">
-        <v>1.043342888598773</v>
+        <v>1.056455298806346</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.045823681728461</v>
+        <v>1.064639663153154</v>
       </c>
       <c r="N10">
-        <v>1.015452946392293</v>
+        <v>1.021022285601294</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004708477096528</v>
+        <v>1.044758607723088</v>
       </c>
       <c r="D11">
-        <v>1.026824281741674</v>
+        <v>1.052554888364296</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.02898409863232</v>
+        <v>1.060681610512617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048298479375169</v>
+        <v>1.045529663718284</v>
       </c>
       <c r="J11">
-        <v>1.033886681345327</v>
+        <v>1.051257599770938</v>
       </c>
       <c r="K11">
-        <v>1.041257461402556</v>
+        <v>1.056061685969938</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.043379362542535</v>
+        <v>1.064159563814273</v>
       </c>
       <c r="N11">
-        <v>1.014716492626373</v>
+        <v>1.020883279880055</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003413103783717</v>
+        <v>1.044520109351828</v>
       </c>
       <c r="D12">
-        <v>1.025824389177548</v>
+        <v>1.052363754894417</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.027848121070841</v>
+        <v>1.06045870279038</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047856130742984</v>
+        <v>1.045462058933614</v>
       </c>
       <c r="J12">
-        <v>1.033073714070502</v>
+        <v>1.051104876444603</v>
       </c>
       <c r="K12">
-        <v>1.040473012718542</v>
+        <v>1.055915410606381</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.042460560022564</v>
+        <v>1.063981229421466</v>
       </c>
       <c r="N12">
-        <v>1.014439447169562</v>
+        <v>1.020831613271626</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003691682442901</v>
+        <v>1.044571265605734</v>
       </c>
       <c r="D13">
-        <v>1.026039380078199</v>
+        <v>1.052404751249896</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.028092359036976</v>
+        <v>1.060506512085968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047951322557818</v>
+        <v>1.045476568542485</v>
       </c>
       <c r="J13">
-        <v>1.03324856847826</v>
+        <v>1.051137638882845</v>
       </c>
       <c r="K13">
-        <v>1.040641732228356</v>
+        <v>1.055946790325022</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.042658147296917</v>
+        <v>1.064019482925805</v>
       </c>
       <c r="N13">
-        <v>1.014499035221595</v>
+        <v>1.020842697454321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004601722906119</v>
+        <v>1.044738892266906</v>
       </c>
       <c r="D14">
-        <v>1.026741859605988</v>
+        <v>1.052539088121526</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.028890452955434</v>
+        <v>1.060663182562893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04826205244773</v>
+        <v>1.0455240791617</v>
       </c>
       <c r="J14">
-        <v>1.033819692396406</v>
+        <v>1.05124497686122</v>
       </c>
       <c r="K14">
-        <v>1.041192821937073</v>
+        <v>1.056049596226884</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.043303639068453</v>
+        <v>1.06414482271648</v>
       </c>
       <c r="N14">
-        <v>1.014693664223286</v>
+        <v>1.020879009787659</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005160345550132</v>
+        <v>1.044842179767352</v>
       </c>
       <c r="D15">
-        <v>1.027173195469087</v>
+        <v>1.052621864577089</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.029380536393339</v>
+        <v>1.060759727526856</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048452610882775</v>
+        <v>1.045553328140982</v>
       </c>
       <c r="J15">
-        <v>1.034170212945922</v>
+        <v>1.051311103219775</v>
       </c>
       <c r="K15">
-        <v>1.041531049648344</v>
+        <v>1.05611292907945</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.043699890441524</v>
+        <v>1.064222048179657</v>
       </c>
       <c r="N15">
-        <v>1.014813113518183</v>
+        <v>1.020901378559064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008380619345034</v>
+        <v>1.045443466852555</v>
       </c>
       <c r="D16">
-        <v>1.029661515978121</v>
+        <v>1.053103766526264</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.032208358054687</v>
+        <v>1.061321890835058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049548334953147</v>
+        <v>1.045723204890031</v>
       </c>
       <c r="J16">
-        <v>1.036189898156744</v>
+        <v>1.051695862803316</v>
       </c>
       <c r="K16">
-        <v>1.043479939628673</v>
+        <v>1.056481411730766</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.045984408350035</v>
+        <v>1.064671525136444</v>
       </c>
       <c r="N16">
-        <v>1.015501341718004</v>
+        <v>1.021031506211174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010373870185456</v>
+        <v>1.04582073402379</v>
       </c>
       <c r="D17">
-        <v>1.031203242609078</v>
+        <v>1.053406144412184</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.033960966571541</v>
+        <v>1.061674722580481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050224075676922</v>
+        <v>1.045829442321945</v>
       </c>
       <c r="J17">
-        <v>1.037439151233843</v>
+        <v>1.051937102184269</v>
       </c>
       <c r="K17">
-        <v>1.044685425200494</v>
+        <v>1.056712425535579</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.047398633752954</v>
+        <v>1.064953461818686</v>
       </c>
       <c r="N17">
-        <v>1.015927003211294</v>
+        <v>1.021113071474426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011527129209252</v>
+        <v>1.046040821860577</v>
       </c>
       <c r="D18">
-        <v>1.032095786995318</v>
+        <v>1.053582549668868</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.034975791419295</v>
+        <v>1.061880595640313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050614140200365</v>
+        <v>1.045891292728223</v>
       </c>
       <c r="J18">
-        <v>1.038161618916977</v>
+        <v>1.052077773114446</v>
       </c>
       <c r="K18">
-        <v>1.045382585673752</v>
+        <v>1.056847126457047</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.048216924218144</v>
+        <v>1.065117907414356</v>
       </c>
       <c r="N18">
-        <v>1.016173157597541</v>
+        <v>1.021160625255322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011918795871625</v>
+        <v>1.04611587192081</v>
       </c>
       <c r="D19">
-        <v>1.032398998146003</v>
+        <v>1.053642704926249</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.035320576705138</v>
+        <v>1.06195080525754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050746457651799</v>
+        <v>1.045912362415094</v>
       </c>
       <c r="J19">
-        <v>1.038406924493604</v>
+        <v>1.052125731473978</v>
       </c>
       <c r="K19">
-        <v>1.045619298897215</v>
+        <v>1.056893048245413</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.048494835653345</v>
+        <v>1.065173978524872</v>
       </c>
       <c r="N19">
-        <v>1.016256733935764</v>
+        <v>1.021176836148988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010160988345189</v>
+        <v>1.045780253276603</v>
       </c>
       <c r="D20">
-        <v>1.031038528754265</v>
+        <v>1.053373698669012</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.03377370247229</v>
+        <v>1.061636859589674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050151999439575</v>
+        <v>1.045818056055732</v>
       </c>
       <c r="J20">
-        <v>1.037305763018403</v>
+        <v>1.05191122360568</v>
       </c>
       <c r="K20">
-        <v>1.044556709697524</v>
+        <v>1.056687644643606</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.047247587489931</v>
+        <v>1.064923213015659</v>
       </c>
       <c r="N20">
-        <v>1.015881554890176</v>
+        <v>1.021104322552163</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004334174282177</v>
+        <v>1.044689528895851</v>
       </c>
       <c r="D21">
-        <v>1.026535307300886</v>
+        <v>1.052499527785165</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.02865577883199</v>
+        <v>1.060617043862044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048170736704073</v>
+        <v>1.045510093442807</v>
       </c>
       <c r="J21">
-        <v>1.033651796516992</v>
+        <v>1.051213370190679</v>
       </c>
       <c r="K21">
-        <v>1.041030814973849</v>
+        <v>1.056019324378131</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.043113862458756</v>
+        <v>1.064107913378514</v>
       </c>
       <c r="N21">
-        <v>1.014636448653438</v>
+        <v>1.02086831763821</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000580343002963</v>
+        <v>1.04400406027289</v>
       </c>
       <c r="D22">
-        <v>1.023639564806016</v>
+        <v>1.051950209886767</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.025366470422441</v>
+        <v>1.0599765041578</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046886296078507</v>
+        <v>1.045315422080884</v>
       </c>
       <c r="J22">
-        <v>1.031295085205697</v>
+        <v>1.050774247267753</v>
       </c>
       <c r="K22">
-        <v>1.038756826418076</v>
+        <v>1.055598720110158</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.040451622784855</v>
+        <v>1.063595278746721</v>
       </c>
       <c r="N22">
-        <v>1.013833297292295</v>
+        <v>1.020719737189091</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002579174661937</v>
+        <v>1.044367410274424</v>
       </c>
       <c r="D23">
-        <v>1.025180951119685</v>
+        <v>1.052241384133216</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.027117192785109</v>
+        <v>1.060316003536825</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047570973472134</v>
+        <v>1.045418719784918</v>
       </c>
       <c r="J23">
-        <v>1.032550220031885</v>
+        <v>1.051007068031507</v>
       </c>
       <c r="K23">
-        <v>1.03996788962472</v>
+        <v>1.055821728502023</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.041869105106192</v>
+        <v>1.063867037973391</v>
       </c>
       <c r="N23">
-        <v>1.014261045455108</v>
+        <v>1.020798520857783</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010257209381539</v>
+        <v>1.045798544677864</v>
       </c>
       <c r="D24">
-        <v>1.031112976577781</v>
+        <v>1.053388359400785</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.033858342010191</v>
+        <v>1.061653968022211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050184580187841</v>
+        <v>1.045823201378038</v>
       </c>
       <c r="J24">
-        <v>1.037366054536589</v>
+        <v>1.051922917144796</v>
       </c>
       <c r="K24">
-        <v>1.044614889135306</v>
+        <v>1.056698842202715</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.047315859161873</v>
+        <v>1.064936881157969</v>
       </c>
       <c r="N24">
-        <v>1.015902097590577</v>
+        <v>1.021108275881099</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018802049080054</v>
+        <v>1.047460638895348</v>
       </c>
       <c r="D25">
-        <v>1.037734856403736</v>
+        <v>1.054720664657867</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.041391029499989</v>
+        <v>1.063209432278699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053058167073376</v>
+        <v>1.046288024269205</v>
       </c>
       <c r="J25">
-        <v>1.042712804514071</v>
+        <v>1.052984140528175</v>
       </c>
       <c r="K25">
-        <v>1.049774325560656</v>
+        <v>1.057714895249285</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.053379069797111</v>
+        <v>1.066178241758321</v>
       </c>
       <c r="N25">
-        <v>1.017723506454568</v>
+        <v>1.021466870801491</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048787380830204</v>
+        <v>1.025350803408482</v>
       </c>
       <c r="D2">
-        <v>1.05578431934836</v>
+        <v>1.042823643837955</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.064452307921284</v>
+        <v>1.047186265340448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046655076873322</v>
+        <v>1.055230908319948</v>
       </c>
       <c r="J2">
-        <v>1.053829278645595</v>
+        <v>1.046798840073833</v>
       </c>
       <c r="K2">
-        <v>1.058523825643732</v>
+        <v>1.053716953467778</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.067168206705943</v>
+        <v>1.058025149540578</v>
       </c>
       <c r="N2">
-        <v>1.021752181434427</v>
+        <v>1.019114808921973</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049751318248072</v>
+        <v>1.029963645383486</v>
       </c>
       <c r="D3">
-        <v>1.056557194739944</v>
+        <v>1.046415016803797</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.065356026627811</v>
+        <v>1.05128018642405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046919442814507</v>
+        <v>1.056743532690753</v>
       </c>
       <c r="J3">
-        <v>1.054442163160081</v>
+        <v>1.049669512163729</v>
       </c>
       <c r="K3">
-        <v>1.059110314433211</v>
+        <v>1.056486552883567</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.067886911492349</v>
+        <v>1.061296422669</v>
       </c>
       <c r="N3">
-        <v>1.021958928704951</v>
+        <v>1.02009182007211</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050375327028714</v>
+        <v>1.032886472441214</v>
       </c>
       <c r="D4">
-        <v>1.05705755323334</v>
+        <v>1.048693482432351</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.065941379336871</v>
+        <v>1.053879391838014</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047089509412093</v>
+        <v>1.057693497290833</v>
       </c>
       <c r="J4">
-        <v>1.054838384406281</v>
+        <v>1.051484775235976</v>
       </c>
       <c r="K4">
-        <v>1.059489406525065</v>
+        <v>1.058237701561295</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.068351911154328</v>
+        <v>1.063368283060514</v>
       </c>
       <c r="N4">
-        <v>1.022092514844582</v>
+        <v>1.020709389602256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05063772582993</v>
+        <v>1.034100915486952</v>
       </c>
       <c r="D5">
-        <v>1.057267964168368</v>
+        <v>1.049640833808767</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.066187600759304</v>
+        <v>1.054960570245189</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047160766537858</v>
+        <v>1.058086142521251</v>
       </c>
       <c r="J5">
-        <v>1.055004869796042</v>
+        <v>1.052238108443457</v>
       </c>
       <c r="K5">
-        <v>1.059648678943662</v>
+        <v>1.058964371415907</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.068547383946813</v>
+        <v>1.064228887891955</v>
       </c>
       <c r="N5">
-        <v>1.022148627876382</v>
+        <v>1.020965618381985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050681787562794</v>
+        <v>1.034304001301487</v>
       </c>
       <c r="D6">
-        <v>1.057303296587896</v>
+        <v>1.049799291538415</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.066228950543793</v>
+        <v>1.055141440233577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047172716901791</v>
+        <v>1.058151680276026</v>
       </c>
       <c r="J6">
-        <v>1.055032818358219</v>
+        <v>1.052364030315957</v>
       </c>
       <c r="K6">
-        <v>1.059675415718184</v>
+        <v>1.059085832925308</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.068580203893558</v>
+        <v>1.064372786554506</v>
       </c>
       <c r="N6">
-        <v>1.022158046760009</v>
+        <v>1.02100844399389</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050378832957869</v>
+        <v>1.032902755451844</v>
       </c>
       <c r="D7">
-        <v>1.057060364519373</v>
+        <v>1.048706181853202</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.065944668814345</v>
+        <v>1.053893883372094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047090462492474</v>
+        <v>1.057698770013211</v>
       </c>
       <c r="J7">
-        <v>1.054840609331201</v>
+        <v>1.051494879429242</v>
       </c>
       <c r="K7">
-        <v>1.059491535116646</v>
+        <v>1.058247448359285</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.068354523123938</v>
+        <v>1.063379822955081</v>
       </c>
       <c r="N7">
-        <v>1.022093264813112</v>
+        <v>1.020712826560496</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049113090219373</v>
+        <v>1.026922896437075</v>
       </c>
       <c r="D8">
-        <v>1.056045462407878</v>
+        <v>1.044046981261917</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.064757601768098</v>
+        <v>1.048580392919273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046744626497049</v>
+        <v>1.055748179821029</v>
       </c>
       <c r="J8">
-        <v>1.054036479076625</v>
+        <v>1.047777939132301</v>
       </c>
       <c r="K8">
-        <v>1.058722115699898</v>
+        <v>1.05466161726295</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.067411106185572</v>
+        <v>1.05914019107429</v>
       </c>
       <c r="N8">
-        <v>1.021822092437374</v>
+        <v>1.01944808575817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046884843321722</v>
+        <v>1.015885736672069</v>
       </c>
       <c r="D9">
-        <v>1.054259090605662</v>
+        <v>1.035472510205771</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.062670381577712</v>
+        <v>1.038816510582318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046127612827587</v>
+        <v>1.052081997732118</v>
       </c>
       <c r="J9">
-        <v>1.052616806999259</v>
+        <v>1.040889735757303</v>
       </c>
       <c r="K9">
-        <v>1.05736323316295</v>
+        <v>1.048015141789134</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.065748343177962</v>
+        <v>1.051309714540043</v>
       </c>
       <c r="N9">
-        <v>1.021342787417987</v>
+        <v>1.017102552823432</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04540083668444</v>
+        <v>1.008154075894016</v>
       </c>
       <c r="D10">
-        <v>1.053069599453732</v>
+        <v>1.029486364399141</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.061282027257948</v>
+        <v>1.032009275089811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045711183339656</v>
+        <v>1.049471410863193</v>
       </c>
       <c r="J10">
-        <v>1.05166859504695</v>
+        <v>1.036047870334615</v>
       </c>
       <c r="K10">
-        <v>1.056455298806346</v>
+        <v>1.043342888598773</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.064639663153154</v>
+        <v>1.045823681728461</v>
       </c>
       <c r="N10">
-        <v>1.021022285601294</v>
+        <v>1.015452946392293</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.044758607723088</v>
+        <v>1.004708477096528</v>
       </c>
       <c r="D11">
-        <v>1.052554888364296</v>
+        <v>1.026824281741675</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.060681610512617</v>
+        <v>1.028984098632321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045529663718284</v>
+        <v>1.048298479375169</v>
       </c>
       <c r="J11">
-        <v>1.051257599770938</v>
+        <v>1.033886681345328</v>
       </c>
       <c r="K11">
-        <v>1.056061685969938</v>
+        <v>1.041257461402558</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.064159563814273</v>
+        <v>1.043379362542537</v>
       </c>
       <c r="N11">
-        <v>1.020883279880055</v>
+        <v>1.014716492626373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C12">
-        <v>1.044520109351828</v>
+        <v>1.003413103783718</v>
       </c>
       <c r="D12">
-        <v>1.052363754894417</v>
+        <v>1.025824389177548</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.06045870279038</v>
+        <v>1.027848121070841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045462058933614</v>
+        <v>1.047856130742984</v>
       </c>
       <c r="J12">
-        <v>1.051104876444603</v>
+        <v>1.033073714070502</v>
       </c>
       <c r="K12">
-        <v>1.055915410606381</v>
+        <v>1.040473012718542</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.063981229421466</v>
+        <v>1.042460560022565</v>
       </c>
       <c r="N12">
-        <v>1.020831613271626</v>
+        <v>1.014439447169562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044571265605734</v>
+        <v>1.003691682442901</v>
       </c>
       <c r="D13">
-        <v>1.052404751249896</v>
+        <v>1.0260393800782</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.060506512085968</v>
+        <v>1.028092359036977</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045476568542485</v>
+        <v>1.047951322557818</v>
       </c>
       <c r="J13">
-        <v>1.051137638882845</v>
+        <v>1.033248568478261</v>
       </c>
       <c r="K13">
-        <v>1.055946790325022</v>
+        <v>1.040641732228356</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.064019482925805</v>
+        <v>1.042658147296917</v>
       </c>
       <c r="N13">
-        <v>1.020842697454321</v>
+        <v>1.014499035221595</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044738892266906</v>
+        <v>1.004601722906119</v>
       </c>
       <c r="D14">
-        <v>1.052539088121526</v>
+        <v>1.026741859605987</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.060663182562893</v>
+        <v>1.028890452955433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0455240791617</v>
+        <v>1.048262052447729</v>
       </c>
       <c r="J14">
-        <v>1.05124497686122</v>
+        <v>1.033819692396404</v>
       </c>
       <c r="K14">
-        <v>1.056049596226884</v>
+        <v>1.041192821937072</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.06414482271648</v>
+        <v>1.043303639068452</v>
       </c>
       <c r="N14">
-        <v>1.020879009787659</v>
+        <v>1.014693664223285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044842179767352</v>
+        <v>1.005160345550133</v>
       </c>
       <c r="D15">
-        <v>1.052621864577089</v>
+        <v>1.027173195469087</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.060759727526856</v>
+        <v>1.02938053639334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045553328140982</v>
+        <v>1.048452610882776</v>
       </c>
       <c r="J15">
-        <v>1.051311103219775</v>
+        <v>1.034170212945922</v>
       </c>
       <c r="K15">
-        <v>1.05611292907945</v>
+        <v>1.041531049648344</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.064222048179657</v>
+        <v>1.043699890441524</v>
       </c>
       <c r="N15">
-        <v>1.020901378559064</v>
+        <v>1.014813113518183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045443466852555</v>
+        <v>1.008380619345034</v>
       </c>
       <c r="D16">
-        <v>1.053103766526264</v>
+        <v>1.02966151597812</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.061321890835058</v>
+        <v>1.032208358054687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045723204890031</v>
+        <v>1.049548334953147</v>
       </c>
       <c r="J16">
-        <v>1.051695862803316</v>
+        <v>1.036189898156743</v>
       </c>
       <c r="K16">
-        <v>1.056481411730766</v>
+        <v>1.043479939628672</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.064671525136444</v>
+        <v>1.045984408350035</v>
       </c>
       <c r="N16">
-        <v>1.021031506211174</v>
+        <v>1.015501341718004</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04582073402379</v>
+        <v>1.010373870185455</v>
       </c>
       <c r="D17">
-        <v>1.053406144412184</v>
+        <v>1.031203242609078</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.061674722580481</v>
+        <v>1.03396096657154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045829442321945</v>
+        <v>1.050224075676922</v>
       </c>
       <c r="J17">
-        <v>1.051937102184269</v>
+        <v>1.037439151233843</v>
       </c>
       <c r="K17">
-        <v>1.056712425535579</v>
+        <v>1.044685425200493</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.064953461818686</v>
+        <v>1.047398633752953</v>
       </c>
       <c r="N17">
-        <v>1.021113071474426</v>
+        <v>1.015927003211293</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046040821860577</v>
+        <v>1.011527129209251</v>
       </c>
       <c r="D18">
-        <v>1.053582549668868</v>
+        <v>1.032095786995317</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.061880595640313</v>
+        <v>1.034975791419294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045891292728223</v>
+        <v>1.050614140200365</v>
       </c>
       <c r="J18">
-        <v>1.052077773114446</v>
+        <v>1.038161618916976</v>
       </c>
       <c r="K18">
-        <v>1.056847126457047</v>
+        <v>1.045382585673751</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.065117907414356</v>
+        <v>1.048216924218142</v>
       </c>
       <c r="N18">
-        <v>1.021160625255322</v>
+        <v>1.01617315759754</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04611587192081</v>
+        <v>1.011918795871627</v>
       </c>
       <c r="D19">
-        <v>1.053642704926249</v>
+        <v>1.032398998146005</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.06195080525754</v>
+        <v>1.035320576705139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045912362415094</v>
+        <v>1.0507464576518</v>
       </c>
       <c r="J19">
-        <v>1.052125731473978</v>
+        <v>1.038406924493606</v>
       </c>
       <c r="K19">
-        <v>1.056893048245413</v>
+        <v>1.045619298897217</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.065173978524872</v>
+        <v>1.048494835653347</v>
       </c>
       <c r="N19">
-        <v>1.021176836148988</v>
+        <v>1.016256733935764</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045780253276603</v>
+        <v>1.010160988345188</v>
       </c>
       <c r="D20">
-        <v>1.053373698669012</v>
+        <v>1.031038528754265</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.061636859589674</v>
+        <v>1.03377370247229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045818056055732</v>
+        <v>1.050151999439574</v>
       </c>
       <c r="J20">
-        <v>1.05191122360568</v>
+        <v>1.037305763018403</v>
       </c>
       <c r="K20">
-        <v>1.056687644643606</v>
+        <v>1.044556709697524</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.064923213015659</v>
+        <v>1.047247587489931</v>
       </c>
       <c r="N20">
-        <v>1.021104322552163</v>
+        <v>1.015881554890176</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044689528895851</v>
+        <v>1.004334174282176</v>
       </c>
       <c r="D21">
-        <v>1.052499527785165</v>
+        <v>1.026535307300885</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.060617043862044</v>
+        <v>1.028655778831989</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045510093442807</v>
+        <v>1.048170736704072</v>
       </c>
       <c r="J21">
-        <v>1.051213370190679</v>
+        <v>1.033651796516992</v>
       </c>
       <c r="K21">
-        <v>1.056019324378131</v>
+        <v>1.041030814973848</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.064107913378514</v>
+        <v>1.043113862458755</v>
       </c>
       <c r="N21">
-        <v>1.02086831763821</v>
+        <v>1.014636448653438</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04400406027289</v>
+        <v>1.000580343002962</v>
       </c>
       <c r="D22">
-        <v>1.051950209886767</v>
+        <v>1.023639564806015</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.0599765041578</v>
+        <v>1.025366470422441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045315422080884</v>
+        <v>1.046886296078506</v>
       </c>
       <c r="J22">
-        <v>1.050774247267753</v>
+        <v>1.031295085205696</v>
       </c>
       <c r="K22">
-        <v>1.055598720110158</v>
+        <v>1.038756826418075</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.063595278746721</v>
+        <v>1.040451622784854</v>
       </c>
       <c r="N22">
-        <v>1.020719737189091</v>
+        <v>1.013833297292294</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044367410274424</v>
+        <v>1.002579174661936</v>
       </c>
       <c r="D23">
-        <v>1.052241384133216</v>
+        <v>1.025180951119684</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.060316003536825</v>
+        <v>1.027117192785108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045418719784918</v>
+        <v>1.047570973472133</v>
       </c>
       <c r="J23">
-        <v>1.051007068031507</v>
+        <v>1.032550220031884</v>
       </c>
       <c r="K23">
-        <v>1.055821728502023</v>
+        <v>1.03996788962472</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.063867037973391</v>
+        <v>1.041869105106192</v>
       </c>
       <c r="N23">
-        <v>1.020798520857783</v>
+        <v>1.014261045455108</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045798544677864</v>
+        <v>1.010257209381539</v>
       </c>
       <c r="D24">
-        <v>1.053388359400785</v>
+        <v>1.03111297657778</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.061653968022211</v>
+        <v>1.033858342010191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045823201378038</v>
+        <v>1.050184580187841</v>
       </c>
       <c r="J24">
-        <v>1.051922917144796</v>
+        <v>1.037366054536589</v>
       </c>
       <c r="K24">
-        <v>1.056698842202715</v>
+        <v>1.044614889135306</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.064936881157969</v>
+        <v>1.047315859161872</v>
       </c>
       <c r="N24">
-        <v>1.021108275881099</v>
+        <v>1.015902097590577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047460638895348</v>
+        <v>1.018802049080054</v>
       </c>
       <c r="D25">
-        <v>1.054720664657867</v>
+        <v>1.037734856403736</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.063209432278699</v>
+        <v>1.041391029499989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046288024269205</v>
+        <v>1.053058167073376</v>
       </c>
       <c r="J25">
-        <v>1.052984140528175</v>
+        <v>1.042712804514072</v>
       </c>
       <c r="K25">
-        <v>1.057714895249285</v>
+        <v>1.049774325560656</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.066178241758321</v>
+        <v>1.053379069797111</v>
       </c>
       <c r="N25">
-        <v>1.021466870801491</v>
+        <v>1.017723506454569</v>
       </c>
     </row>
   </sheetData>
